--- a/CasosdepruebaE-bike.xlsx
+++ b/CasosdepruebaE-bike.xlsx
@@ -95,9 +95,6 @@
     <t>CP-003</t>
   </si>
   <si>
-    <t>Hacer clic en el botón Iniciar sesión</t>
-  </si>
-  <si>
     <t>Apertura de la aplicación.</t>
   </si>
   <si>
@@ -125,12 +122,6 @@
     <t>CP-007</t>
   </si>
   <si>
-    <t>Proporcionar un nombre de usuario valido.</t>
-  </si>
-  <si>
-    <t>Proporcionar  contraseña valida.</t>
-  </si>
-  <si>
     <t>Dar click en enter.</t>
   </si>
   <si>
@@ -177,9 +168,6 @@
   </si>
   <si>
     <t>Casos de Prueba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirigirse a la barra de navegacion </t>
   </si>
   <si>
     <t>Uso de barra de navegación.</t>
@@ -252,6 +240,18 @@
   </si>
   <si>
     <t>Salida incorrecta ya que no aceptó el parametro de entrada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprobar disponibilidad de la barra de navegacion </t>
+  </si>
+  <si>
+    <t>Verificar la entrada de un nombre de usuario valido.</t>
+  </si>
+  <si>
+    <t>Verificar la entrada de una  contraseña valida.</t>
+  </si>
+  <si>
+    <t>Comprobar el correcto inicio de la aplicación.</t>
   </si>
 </sst>
 </file>
@@ -974,161 +974,60 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1145,12 +1044,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1160,133 +1053,249 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1296,47 +1305,38 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1624,14 +1624,14 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="4" max="4" width="39.85546875" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
@@ -1645,15 +1645,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="129"/>
+      <c r="A1" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="115"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -1661,15 +1661,15 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="131"/>
+      <c r="B2" s="112"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1677,15 +1677,15 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="131"/>
+      <c r="A3" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="112"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -1693,15 +1693,15 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="126"/>
-      <c r="B4" s="127"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="119"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="110"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1714,8 +1714,8 @@
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1723,639 +1723,585 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="57"/>
+    </row>
+    <row r="8" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="126" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="128" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="108" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="60"/>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="132" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="124"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="F9" s="9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="130"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="125"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="11">
+        <v>3</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="131"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="62"/>
+      <c r="F11" s="13">
         <v>1</v>
       </c>
-      <c r="D6" s="112" t="s">
+      <c r="G11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="36"/>
+      <c r="L11" s="69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="99"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="15">
         <v>2</v>
       </c>
-      <c r="E6" s="113" t="s">
+      <c r="G12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="70"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="70"/>
+    </row>
+    <row r="13" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="100"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="17">
         <v>3</v>
       </c>
-      <c r="F6" s="114" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="113" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="111" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="115" t="s">
+      <c r="G13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="71"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="71"/>
+    </row>
+    <row r="14" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="20">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="36"/>
+      <c r="L14" s="69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="105"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="22">
+        <v>2</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="76"/>
+      <c r="I15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="70"/>
+      <c r="K15" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="70"/>
+    </row>
+    <row r="16" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="23">
+        <v>3</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="77"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="71"/>
+    </row>
+    <row r="17" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="134" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="36"/>
+      <c r="L17" s="69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="99"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="28">
+        <v>2</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="70"/>
+    </row>
+    <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="99"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="30">
+        <v>3</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="76"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="71"/>
+    </row>
+    <row r="20" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="117"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="59"/>
+    </row>
+    <row r="21" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34">
+        <v>1</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" s="32"/>
+      <c r="L21" s="66"/>
+    </row>
+    <row r="22" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="63"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="37">
+        <v>2</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="66"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="113" t="s">
+      <c r="L22" s="66"/>
+    </row>
+    <row r="23" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40">
+        <v>3</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="67"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="67"/>
+    </row>
+    <row r="24" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="43">
+        <v>1</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="116" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="118" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="121"/>
-    </row>
-    <row r="8" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="K24" s="36"/>
+      <c r="L24" s="72"/>
+    </row>
+    <row r="25" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="37">
+        <v>2</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="66"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="66"/>
+    </row>
+    <row r="26" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="40">
+        <v>3</v>
+      </c>
+      <c r="G26" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="132"/>
-      <c r="F8" s="10">
+      <c r="H26" s="67"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="67"/>
+    </row>
+    <row r="27" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="45">
         <v>1</v>
       </c>
-      <c r="G8" s="117" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="132" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="18">
+      <c r="G27" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="72"/>
+    </row>
+    <row r="28" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="85"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="46">
         <v>2</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="26">
+      <c r="G28" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="93"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="66"/>
+    </row>
+    <row r="29" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="86"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="48">
         <v>3</v>
       </c>
-      <c r="G10" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="134"/>
-      <c r="F11" s="33">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="75"/>
-      <c r="L11" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="132" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="39">
-        <v>2</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="43">
-        <v>3</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="30"/>
-    </row>
-    <row r="14" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="48">
-        <v>1</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="75"/>
-      <c r="L14" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52">
-        <v>2</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="54">
-        <v>3</v>
-      </c>
-      <c r="G16" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="17" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59">
-        <v>1</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="75"/>
-      <c r="L17" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="63">
-        <v>2</v>
-      </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="65">
-        <v>3</v>
-      </c>
-      <c r="G19" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="30"/>
-    </row>
-    <row r="20" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="125"/>
-    </row>
-    <row r="21" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="71">
-        <v>1</v>
-      </c>
-      <c r="G21" s="124" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="67"/>
-      <c r="L21" s="79"/>
-    </row>
-    <row r="22" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="77">
-        <v>2</v>
-      </c>
-      <c r="G22" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="79"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="79"/>
-    </row>
-    <row r="23" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="67"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="83">
-        <v>3</v>
-      </c>
-      <c r="G23" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="85"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="85"/>
-    </row>
-    <row r="24" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="75"/>
-      <c r="B24" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="88">
-        <v>1</v>
-      </c>
-      <c r="G24" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="K24" s="75"/>
-      <c r="L24" s="108"/>
-    </row>
-    <row r="25" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="77">
-        <v>2</v>
-      </c>
-      <c r="G25" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="79"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="L25" s="79"/>
-    </row>
-    <row r="26" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="67"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="83">
-        <v>3</v>
-      </c>
-      <c r="G26" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="85"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="85"/>
-    </row>
-    <row r="27" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="94" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="95">
-        <v>1</v>
-      </c>
-      <c r="G27" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="96" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="108"/>
-    </row>
-    <row r="28" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="97"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="99">
-        <v>2</v>
-      </c>
-      <c r="G28" s="100" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="96"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="79"/>
-    </row>
-    <row r="29" spans="1:12" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="101"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="105">
-        <v>3</v>
-      </c>
-      <c r="G29" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="106"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="85"/>
+      <c r="G29" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="94"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="L27:L29"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A20:K20"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
@@ -2367,7 +2313,61 @@
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="I8:I10"/>
     <mergeCell ref="K8:K10"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A20:K20"/>
     <mergeCell ref="I17:I19"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="I24:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
